--- a/sriramModel-nelson-melancholic-patientID_60-sims-crh-5-iterations-p_stress.xlsx
+++ b/sriramModel-nelson-melancholic-patientID_60-sims-crh-5-iterations-p_stress.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.167231703102894</v>
+        <v>1.0631177421493</v>
       </c>
       <c r="C2">
-        <v>1.262842942205528</v>
+        <v>1.051559242880826</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.105724084181046</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.118398706545206</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.278415967552817</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.331974613682328</v>
+        <v>1.125712432056554</v>
       </c>
       <c r="C3">
-        <v>1.522605955561904</v>
+        <v>1.102807245000353</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.21080540343239</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.235627972636908</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.55577421226558</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.494503170257378</v>
+        <v>1.187798604527155</v>
       </c>
       <c r="C4">
-        <v>1.779628493163416</v>
+        <v>1.153755298744073</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.315263805235248</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.35174107304895</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.832129157238535</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.655044598778905</v>
+        <v>1.249390109417978</v>
       </c>
       <c r="C5">
-        <v>2.034191527136615</v>
+        <v>1.204413991616622</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.419118085276399</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.466787341521057</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.1075303672285</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.813789374233897</v>
+        <v>1.310500158205358</v>
       </c>
       <c r="C6">
-        <v>2.286530704160178</v>
+        <v>1.254793264065735</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.522386069618594</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.580812385728366</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.382022905010944</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.970899254256445</v>
+        <v>1.371141361821209</v>
       </c>
       <c r="C7">
-        <v>2.536845208085832</v>
+        <v>1.304902480369939</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.625084667869143</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.693858535147706</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.655647911671307</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.126512767545521</v>
+        <v>1.431325760553185</v>
       </c>
       <c r="C8">
-        <v>2.785305325629704</v>
+        <v>1.354750445191156</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.727229948836696</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.805965206069207</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.928443126361737</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.280749545315703</v>
+        <v>1.49106484897043</v>
       </c>
       <c r="C9">
-        <v>3.03205777369303</v>
+        <v>1.404345461436205</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1.828837193618654</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.917169113703655</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3.200443167471988</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.43371370868489</v>
+        <v>1.550369594175725</v>
       </c>
       <c r="C10">
-        <v>3.277229605394127</v>
+        <v>1.453695295392215</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.929920938226188</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.027504524647142</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.471679847250542</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.58549650493301</v>
+        <v>1.609250460989096</v>
       </c>
       <c r="C11">
-        <v>3.520931431608936</v>
+        <v>1.502807317381494</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2.030495019351154</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.137003490623419</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3.742182471570448</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.736178267883692</v>
+        <v>1.667717434754798</v>
       </c>
       <c r="C12">
-        <v>3.763259930044487</v>
+        <v>1.551688467279775</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.130572617711816</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.245696018018648</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>4.011978062949368</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.885830176772757</v>
+        <v>1.725780028959254</v>
       </c>
       <c r="C13">
-        <v>4.004299834819093</v>
+        <v>1.600345268381788</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.230166294971421</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.353610236666415</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4.281091538353188</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.034515640115569</v>
+        <v>1.783447288302899</v>
       </c>
       <c r="C14">
-        <v>4.244125454960328</v>
+        <v>1.648783843015331</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.329288028111054</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.460772542831589</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>4.54954588047327</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.182291299542532</v>
+        <v>1.840727792120976</v>
       </c>
       <c r="C15">
-        <v>4.482801820970793</v>
+        <v>1.697009926896187</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.4279492414868</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.567207741769418</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>4.81736228984112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.32920787726429</v>
+        <v>1.897629654851727</v>
       </c>
       <c r="C16">
-        <v>4.720385794207565</v>
+        <v>1.74502887642662</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.526160830561897</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.67293909986071</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>5.084560252295735</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.475310935990434</v>
+        <v>1.954160519459617</v>
       </c>
       <c r="C17">
-        <v>4.956926770340499</v>
+        <v>1.792845668699271</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.623933185748712</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.77798850086041</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>5.351157658450323</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.620641551189201</v>
+        <v>2.010327542967694</v>
       </c>
       <c r="C18">
-        <v>5.192467132467266</v>
+        <v>1.840464895520059</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.721276212814812</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.88237652681639</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5.617170889808726</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.765236748721241</v>
+        <v>2.066137375153983</v>
       </c>
       <c r="C19">
-        <v>5.427042626297192</v>
+        <v>1.887890748738246</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2.818199351191101</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.986122509907168</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5.882614854740153</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.909129826213748</v>
+        <v>2.121596130211751</v>
       </c>
       <c r="C20">
-        <v>5.660682603292071</v>
+        <v>1.935127010151201</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2.914711587388251</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.08924457614253</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>6.147502994103966</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.052350691240477</v>
+        <v>2.176709346111906</v>
       </c>
       <c r="C21">
-        <v>5.893410078671112</v>
+        <v>1.982177021308327</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3.010821466448379</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.191759693383645</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>6.411847282826185</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.194926134114597</v>
+        <v>2.231481947907052</v>
       </c>
       <c r="C22">
-        <v>6.12524180495347</v>
+        <v>2.029043643574573</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3.10653709868636</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.293683708775021</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>6.67565822275799</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.336880015494476</v>
+        <v>2.285918186568896</v>
       </c>
       <c r="C23">
-        <v>6.356187936680914</v>
+        <v>2.075729230900588</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3.20186616358514</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.395031357218611</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>6.938944783776128</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.478233379020636</v>
+        <v>2.340021558669731</v>
       </c>
       <c r="C24">
-        <v>6.586251712678533</v>
+        <v>2.122235549702614</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3.296815907982871</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.495816276148545</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>7.201714379489176</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.619004503053673</v>
+        <v>2.393794761742293</v>
       </c>
       <c r="C25">
-        <v>6.815428995104958</v>
+        <v>2.168563714852872</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>3.391393139208977</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.596050988232422</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>7.463972724319201</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4.759208903184342</v>
+        <v>2.447239536856544</v>
       </c>
       <c r="C26">
-        <v>7.043707675320355</v>
+        <v>2.214714113823814</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>3.485604213210066</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.695746847543556</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>7.725723695528258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4.898859285185151</v>
+        <v>2.500356597909952</v>
       </c>
       <c r="C27">
-        <v>7.271066898973299</v>
+        <v>2.260686292230075</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.579455014084951</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3.794914037175291</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>7.986969238500016</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5.03796544481293</v>
+        <v>2.5531454842639</v>
       </c>
       <c r="C28">
-        <v>7.497476116144409</v>
+        <v>2.306478820179315</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3.672950928777031</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.893561437151436</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>8.247709059192719</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5.176534091748982</v>
+        <v>2.605604383402117</v>
       </c>
       <c r="C29">
-        <v>7.722893951128373</v>
+        <v>2.352089154459023</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3.766096805046476</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.99169654226727</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>8.507940411982341</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5.314568605895808</v>
+        <v>2.657729997968302</v>
       </c>
       <c r="C30">
-        <v>7.947266839116693</v>
+        <v>2.397513451906199</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>3.858896899946826</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>4.089325362948149</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8.767657853302142</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5.452068718248539</v>
+        <v>2.709517306908379</v>
       </c>
       <c r="C31">
-        <v>8.17052755835654</v>
+        <v>2.442746330947116</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>3.951354810306809</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>4.186452229666791</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>9.026852765594001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5.589030109038846</v>
+        <v>2.760959319629547</v>
       </c>
       <c r="C32">
-        <v>8.392593308077283</v>
+        <v>2.487780628333955</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4.043473382866526</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>4.283079579903143</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>9.285512966636819</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5.725443910011942</v>
+        <v>2.812046883222899</v>
       </c>
       <c r="C33">
-        <v>8.613363702337605</v>
+        <v>2.532607113968842</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>4.13525460123786</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>4.379207763528303</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>9.543622242992434</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.861296098815799</v>
+        <v>2.862768301871335</v>
       </c>
       <c r="C34">
-        <v>8.832718415766372</v>
+        <v>2.577214083980735</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>4.226699425829803</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>4.474834669529976</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>9.801159564137182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.996566769755654</v>
+        <v>2.91310903706077</v>
       </c>
       <c r="C35">
-        <v>9.050514617839873</v>
+        <v>2.621586943630709</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4.317807597597636</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>4.569955327740547</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>10.05809844488616</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6.131229263916568</v>
+        <v>2.963051397430803</v>
       </c>
       <c r="C36">
-        <v>9.266584023649639</v>
+        <v>2.665707825320778</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4.408577372077397</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>4.664561542922268</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>10.31440607577272</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6.265249140169966</v>
+        <v>3.01257402631233</v>
       </c>
       <c r="C37">
-        <v>9.480729637006897</v>
+        <v>2.709554843268799</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4.499005198342195</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>4.758641237892285</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>10.57004205572257</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6.398582979580941</v>
+        <v>3.061651588395835</v>
       </c>
       <c r="C38">
-        <v>9.692722322957151</v>
+        <v>2.753101509543749</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>4.589085262530195</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>4.852177806512418</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>10.82495750397801</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6.53117696247596</v>
+        <v>3.110254155261413</v>
       </c>
       <c r="C39">
-        <v>9.902297106047346</v>
+        <v>2.796315996186167</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4.678808912524892</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>4.945149198009073</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>11.07909302962627</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6.66296523716565</v>
+        <v>3.158346740562209</v>
       </c>
       <c r="C40">
-        <v>10.10914943938409</v>
+        <v>2.839160296712698</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4.768163890844485</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5.037526931233537</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>11.33237711356466</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.793868031699181</v>
+        <v>3.205888758520281</v>
       </c>
       <c r="C41">
-        <v>10.312931215334</v>
+        <v>2.881589271270833</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>4.857133235692238</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5.129274905545389</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>11.58472397166161</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6.92378948997809</v>
+        <v>3.25283343710979</v>
       </c>
       <c r="C42">
-        <v>10.51324717515659</v>
+        <v>2.923549599439709</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>4.945693973120405</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5.220347893608473</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>11.83603092219327</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7.052615211437423</v>
+        <v>3.299127203693964</v>
       </c>
       <c r="C43">
-        <v>10.70965170175092</v>
+        <v>2.964978668598259</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>5.033815326192745</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>5.310689694563285</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>12.08617519061532</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>7.180209479834422</v>
+        <v>3.34470905456527</v>
       </c>
       <c r="C44">
-        <v>10.90164596985918</v>
+        <v>3.005803426078904</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>5.121456283894648</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>5.400230920661728</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>12.33501008005416</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.306412177743748</v>
+        <v>3.389509926931542</v>
       </c>
       <c r="C45">
-        <v>11.08867712159945</v>
+        <v>3.04593923716889</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>5.208562448591167</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5.488886340077622</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>12.58236039484161</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7.431035399084349</v>
+        <v>3.433452088938075</v>
       </c>
       <c r="C46">
-        <v>11.27013842287797</v>
+        <v>3.08528882103056</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>5.295061706375201</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5.576551676826565</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>12.82801694327525</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>7.55385980669792</v>
+        <v>3.476448577403272</v>
       </c>
       <c r="C47">
-        <v>11.44537173517661</v>
+        <v>3.123741363503986</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>5.380858803779025</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>5.663099772916607</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>13.07173001979088</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7.674630817908156</v>
+        <v>3.518402695037489</v>
       </c>
       <c r="C48">
-        <v>11.613673011781</v>
+        <v>3.161171957959202</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>5.465828405249376</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>5.748376059944917</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>13.31320155123004</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7.793054702976054</v>
+        <v>3.559207610541433</v>
       </c>
       <c r="C49">
-        <v>11.77430128781411</v>
+        <v>3.197441539488393</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>5.549806298292782</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>5.832193256375628</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>13.55207602732284</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7.908794869563181</v>
+        <v>3.598746105463678</v>
       </c>
       <c r="C50">
-        <v>11.92649286774028</v>
+        <v>3.232397396107829</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>5.632578774833566</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>5.914324951536505</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>13.78792906916712</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>8.021468576638854</v>
+        <v>3.636890532363318</v>
       </c>
       <c r="C51">
-        <v>12.06947844637283</v>
+        <v>3.265874960672675</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5.713870525555325</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>5.9944989981416</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>14.02025512091498</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>8.13064533077225</v>
+        <v>3.673502890582355</v>
       </c>
       <c r="C52">
-        <v>12.2025055874615</v>
+        <v>3.297700438444204</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5.793666670637117</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>6.072390232651573</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>14.24845387831992</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9.750214011296665</v>
+        <v>4.256353866062242</v>
       </c>
       <c r="C53">
-        <v>13.99203590901199</v>
+        <v>3.75716181269535</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>6.802322893794843</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>7.199105106998404</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>16.75915095919236</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>11.32401864389053</v>
+        <v>4.820139997973012</v>
       </c>
       <c r="C54">
-        <v>15.66792709847488</v>
+        <v>4.19626316756768</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>7.782663310567732</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>8.293850720734619</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>19.21300844605997</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>12.84659492094362</v>
+        <v>5.36342587463268</v>
       </c>
       <c r="C55">
-        <v>17.22503349857351</v>
+        <v>4.613351400141584</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>8.728636159429003</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>9.351748366317908</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>21.60042449372583</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14.31194524641599</v>
+        <v>5.884663590304696</v>
       </c>
       <c r="C56">
-        <v>18.65945346211201</v>
+        <v>5.006878250321324</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>9.633294464918722</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>10.36709115921808</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>23.91023891450197</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>15.71369130165006</v>
+        <v>6.382231019885848</v>
       </c>
       <c r="C57">
-        <v>19.9688125750563</v>
+        <v>5.375485118699336</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>10.48910202483047</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>11.33345683002809</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>26.12974132013347</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>17.04524804167857</v>
+        <v>6.854473425104675</v>
       </c>
       <c r="C58">
-        <v>21.15247726984613</v>
+        <v>5.718082687505158</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>11.28843030532383</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>12.24391593902</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>28.24481588347765</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>18.30004903103041</v>
+        <v>7.299752279061261</v>
       </c>
       <c r="C59">
-        <v>22.211672642877</v>
+        <v>6.033920416639554</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>12.02422357665868</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>13.09137363471085</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>30.24032674073629</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>19.47181975097367</v>
+        <v>7.716503166229037</v>
       </c>
       <c r="C60">
-        <v>23.14949199266515</v>
+        <v>6.322636993623064</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>12.69074449134692</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>13.86906587541653</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>32.10079662362443</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20.55490233014742</v>
+        <v>8.10330100603038</v>
       </c>
       <c r="C61">
-        <v>23.97079236853846</v>
+        <v>6.584286979773755</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>13.28425835824873</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>14.57117608378277</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>33.81144887386244</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>21.54461153787983</v>
+        <v>8.45893432035607</v>
       </c>
       <c r="C62">
-        <v>24.68198316053945</v>
+        <v>6.819340179312484</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>13.80348969910622</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>15.19351479216187</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>35.35956460283356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>22.43759362182297</v>
+        <v>8.782484326945388</v>
       </c>
       <c r="C63">
-        <v>25.2907285736793</v>
+        <v>7.028654331321044</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>14.24974256856988</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>15.73411337217486</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>36.73600238346501</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>23.23214668877695</v>
+        <v>9.07340444387021</v>
       </c>
       <c r="C64">
-        <v>25.80559367770876</v>
+        <v>7.213424751556599</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>14.62666079783618</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>16.1935987648962</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>37.93658377762731</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>23.92845569287006</v>
+        <v>9.331592732728264</v>
       </c>
       <c r="C65">
-        <v>26.23566890465749</v>
+        <v>7.375117449897869</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>14.93970818140775</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>16.57522743728817</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>38.96298119684547</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>24.52869849471142</v>
+        <v>9.557447613960212</v>
       </c>
       <c r="C66">
-        <v>26.59020700576079</v>
+        <v>7.515393473461933</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>15.19550984420703</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>16.88455559255543</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>39.82281235907419</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>25.03699415444659</v>
+        <v>9.751896288789041</v>
       </c>
       <c r="C67">
-        <v>26.87830082180251</v>
+        <v>7.636032203551189</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>15.40119810599139</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>17.12882414974529</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>40.52885634363231</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>25.45918783585603</v>
+        <v>9.916386545063407</v>
       </c>
       <c r="C68">
-        <v>27.108621067119</v>
+        <v>7.738860004279954</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>15.5638677424733</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>17.31621040547727</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>41.09758337374562</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>25.80249582109449</v>
+        <v>10.0528366611929</v>
       </c>
       <c r="C69">
-        <v>27.28922352464646</v>
+        <v>7.825688931264723</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>15.69018840878093</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>17.45510751990723</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>41.54737626842413</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>26.0750572369851</v>
+        <v>10.16354516402244</v>
       </c>
       <c r="C70">
-        <v>27.42742588976784</v>
+        <v>7.898267999077357</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>15.78617263353702</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>17.55354833961285</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>41.8968506169717</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>26.28545343028574</v>
+        <v>10.25107005876621</v>
       </c>
       <c r="C71">
-        <v>27.52974730327964</v>
+        <v>7.958247382776009</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>15.85707355650102</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>17.61882310350689</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>42.16355631694128</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>26.44225526130619</v>
+        <v>10.31809349666173</v>
       </c>
       <c r="C72">
-        <v>27.601899441623</v>
+        <v>8.007154902709031</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>15.90737437020281</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>17.65728377294628</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>42.36316512756782</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>26.55364569578204</v>
+        <v>10.36729037412728</v>
       </c>
       <c r="C73">
-        <v>27.64881623271947</v>
+        <v>8.046383131182493</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>15.94083521386213</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>17.67429459589004</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>42.50910654319539</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>26.62714491245424</v>
+        <v>10.40121687249797</v>
       </c>
       <c r="C74">
-        <v>27.67470958850281</v>
+        <v>8.077184987660102</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>15.96056987198297</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>17.67427964775929</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>42.61253571825049</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>26.66944364834904</v>
+        <v>10.42222865982229</v>
       </c>
       <c r="C75">
-        <v>27.68314017399577</v>
+        <v>8.100675693097156</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>15.96913349902506</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>17.66082369028851</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>42.68250754061052</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>26.68633429004069</v>
+        <v>10.43243166113151</v>
       </c>
       <c r="C76">
-        <v>27.67709448934718</v>
+        <v>8.117839183712311</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>15.9686097051043</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>17.63679398676517</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>42.72625021401255</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>26.68271844220086</v>
+        <v>10.43366210809834</v>
       </c>
       <c r="C77">
-        <v>27.65906195769631</v>
+        <v>8.129537369890157</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>15.960690634542</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>17.60446301691822</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>42.74946667996511</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>26.66266702305603</v>
+        <v>10.42748932352922</v>
       </c>
       <c r="C78">
-        <v>27.6311081134692</v>
+        <v>8.136520911343586</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>15.9467472280105</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>17.56562081939063</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>42.75662215350111</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>26.62951056268015</v>
+        <v>10.41523366965393</v>
       </c>
       <c r="C79">
-        <v>27.5949409319264</v>
+        <v>8.139440577211909</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>15.92788900978451</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>17.52167173784852</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>42.75119679044971</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>26.58594179522252</v>
+        <v>10.39799290586229</v>
       </c>
       <c r="C80">
-        <v>27.5519693196859</v>
+        <v>8.138858516707677</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>15.905013881336</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>17.47371519189914</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>42.73589584500941</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>26.5341183294253</v>
+        <v>10.37667182163384</v>
       </c>
       <c r="C81">
-        <v>27.50335415314555</v>
+        <v>8.135259049891953</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>15.87884901702567</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>17.42261121930571</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>42.71282129984971</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>26.47575776094822</v>
+        <v>10.3520116958602</v>
       </c>
       <c r="C82">
-        <v>27.45005137204831</v>
+        <v>8.129058646723195</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>15.84998411213885</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>17.36903278695277</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>42.68360788185666</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>26.41222136914515</v>
+        <v>10.32461753276267</v>
       </c>
       <c r="C83">
-        <v>27.39284821798754</v>
+        <v>8.120614930180249</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>15.81889817593122</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>17.3135070713485</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>42.64952891007307</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>26.34458477278535</v>
+        <v>10.29498213693198</v>
       </c>
       <c r="C84">
-        <v>27.33239368383549</v>
+        <v>8.11023472021963</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>15.78598117619231</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>17.25644776478849</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>42.61157911643556</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>26.27369491462292</v>
+        <v>10.26350646341285</v>
       </c>
       <c r="C85">
-        <v>27.26922258808206</v>
+        <v>8.098181184504352</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>15.7515511437122</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>17.19817978497931</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>42.57053768116341</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>26.18965917183677</v>
+        <v>10.22249755280999</v>
       </c>
       <c r="C86">
-        <v>27.19064451239809</v>
+        <v>8.074727698175185</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>15.70920609952148</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>17.13481722963294</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>42.51622459739593</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>26.10549023071825</v>
+        <v>10.18141577345248</v>
       </c>
       <c r="C87">
-        <v>27.11194138499851</v>
+        <v>8.051168179806158</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>15.66680228740662</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>17.0714550048099</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>42.46173979405102</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>26.02122923140259</v>
+        <v>10.14028532126544</v>
       </c>
       <c r="C88">
-        <v>27.03314299725078</v>
+        <v>8.027521314129274</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>15.6243574333668</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>17.00810966620829</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>42.40713087997166</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25.93690932203028</v>
+        <v>10.09912421158791</v>
       </c>
       <c r="C89">
-        <v>26.95427477702315</v>
+        <v>8.003801447787366</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>15.58188607126608</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>16.94479419671538</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>42.35242825880854</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.85255691013595</v>
+        <v>10.05794724504361</v>
       </c>
       <c r="C90">
-        <v>26.87535813355469</v>
+        <v>7.980020911863614</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>15.5394002910548</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>16.88151900471409</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>42.29765621209258</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.76819289258329</v>
+        <v>10.01676665605117</v>
       </c>
       <c r="C91">
-        <v>26.7964106552946</v>
+        <v>7.956190337055153</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>15.49691010484547</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>16.81829235032813</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>42.24283431473462</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25.68383403017665</v>
+        <v>9.975592600832101</v>
       </c>
       <c r="C92">
-        <v>26.71744708498274</v>
+        <v>7.932318897397718</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>15.45442382146053</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>16.7551208935246</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>42.18797838956065</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.59949380437831</v>
+        <v>9.934433545049126</v>
       </c>
       <c r="C93">
-        <v>26.63847990868967</v>
+        <v>7.90841451807761</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>15.41194841047163</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>16.69201005664458</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>42.13310112839154</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>25.5151830385138</v>
+        <v>9.89329652702229</v>
       </c>
       <c r="C94">
-        <v>26.55951969339065</v>
+        <v>7.88448408349246</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>15.36948973051391</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>16.62896426880796</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>42.07821285223826</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>25.43091040406351</v>
+        <v>9.852187469152627</v>
       </c>
       <c r="C95">
-        <v>26.48057535952356</v>
+        <v>7.860533572130152</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>15.32705271151927</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>16.56598715031373</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>42.02332202852049</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>25.34668295171165</v>
+        <v>9.811111380602465</v>
       </c>
       <c r="C96">
-        <v>26.40165451387307</v>
+        <v>7.836568148903671</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>15.28464149330903</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>16.50308166452011</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>41.96843560876258</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>25.26250647895637</v>
+        <v>9.770072516977672</v>
       </c>
       <c r="C97">
-        <v>26.32276361401757</v>
+        <v>7.812592314265623</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>15.24225956287573</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>16.44025024245346</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>41.91355930631151</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>25.17838572770007</v>
+        <v>9.729074504992946</v>
       </c>
       <c r="C98">
-        <v>26.24390815227323</v>
+        <v>7.788610003690033</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>15.1999098830533</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>16.37749489886452</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>41.85869779682493</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>25.09432455535863</v>
+        <v>9.688120410385412</v>
       </c>
       <c r="C99">
-        <v>26.16509283436939</v>
+        <v>7.764624662841524</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>15.15759499492293</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>16.31481734368301</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>41.80385494200718</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>25.01032612065399</v>
+        <v>9.647212873668803</v>
       </c>
       <c r="C100">
-        <v>26.08632162426098</v>
+        <v>7.74063931831112</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>15.11531709038392</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>16.25221901700684</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>41.74903396251219</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>24.92639304153787</v>
+        <v>9.606354196307672</v>
       </c>
       <c r="C101">
-        <v>26.0075980438964</v>
+        <v>7.716656623135028</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>15.07307803898835</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>16.18970112932455</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>41.69423757025148</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>24.8425274851972</v>
+        <v>9.565546389792301</v>
       </c>
       <c r="C102">
-        <v>25.9289251366104</v>
+        <v>7.692678889517921</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>15.03087943451903</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>16.12726470467371</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>41.6394680702716</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>24.75873127552567</v>
+        <v>9.52479121524536</v>
       </c>
       <c r="C103">
-        <v>25.85030553976048</v>
+        <v>7.668708166057677</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>14.98872264878025</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>16.06491061846336</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>41.58472738165715</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>24.67500594314868</v>
+        <v>9.484090215663183</v>
       </c>
       <c r="C104">
-        <v>25.77174156168729</v>
+        <v>7.644746258022558</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>14.94660886977223</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>16.00263962306391</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>41.53001710182723</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>24.59135275459504</v>
+        <v>9.443444746309916</v>
       </c>
       <c r="C105">
-        <v>25.69323517309403</v>
+        <v>7.620794769963033</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>14.90453912998314</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>15.940452384853</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>41.47533857790761</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>24.50777278101796</v>
+        <v>9.402856008553751</v>
       </c>
       <c r="C106">
-        <v>25.61478810275093</v>
+        <v>7.596855141950162</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>14.86251433523989</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>15.87834947617683</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>41.42069295020758</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>24.42426692382952</v>
+        <v>9.362325078059516</v>
       </c>
       <c r="C107">
-        <v>25.53640186285998</v>
+        <v>7.572928647289326</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>14.82053527016267</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>15.81633142865838</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>41.36608119860705</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>24.34083594453041</v>
+        <v>9.321852922130811</v>
       </c>
       <c r="C108">
-        <v>25.45807778545252</v>
+        <v>7.549016423366909</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>14.77860264081302</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>15.75439869654839</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>41.31150414826273</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>24.25748049321504</v>
+        <v>9.281440419402886</v>
       </c>
       <c r="C109">
-        <v>25.37981704079724</v>
+        <v>7.525119478237591</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>14.73671704649762</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>15.69255170499705</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>41.25696253190911</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>24.17420113302962</v>
+        <v>9.241088373228893</v>
       </c>
       <c r="C110">
-        <v>25.30162070134836</v>
+        <v>7.501238714373224</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>14.69487903461117</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>15.6307908285072</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>41.20245695531159</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>24.0909983458862</v>
+        <v>9.200797511699841</v>
       </c>
       <c r="C111">
-        <v>25.2234896534942</v>
+        <v>7.477374942363205</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>14.65308907404912</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>15.56911641120522</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>41.14798795686555</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>24.00787254653702</v>
+        <v>9.160568519063586</v>
       </c>
       <c r="C112">
-        <v>25.14542480413792</v>
+        <v>7.453528889389743</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>14.61134758901596</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>15.50752877063814</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>41.09355598663181</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>23.924824096256</v>
+        <v>9.120402007808222</v>
       </c>
       <c r="C113">
-        <v>25.06742682744734</v>
+        <v>7.429701215623468</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>14.5696549554568</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>15.44602820112007</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>41.03916143261202</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>23.84185330703352</v>
+        <v>9.080298561657704</v>
       </c>
       <c r="C114">
-        <v>24.98949646335877</v>
+        <v>7.405892519081103</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>14.52801151074961</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>15.38461498138813</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>40.98480463021667</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>23.75896045209012</v>
+        <v>9.040258713894108</v>
       </c>
       <c r="C115">
-        <v>24.91163426132278</v>
+        <v>7.382103336027105</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>14.48641756238369</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>15.3232893740782</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>40.9304858657371</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>23.67614577173475</v>
+        <v>9.000282969554004</v>
       </c>
       <c r="C116">
-        <v>24.83384078602908</v>
+        <v>7.358334172976625</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>14.44487338400411</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>15.26205163368262</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>40.87620539184696</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>23.59340947965232</v>
+        <v>8.96037180473124</v>
       </c>
       <c r="C117">
-        <v>24.75611651218428</v>
+        <v>7.334585464302009</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>14.40337922953738</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>15.20090200059376</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>40.8219634243435</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>23.51075176495947</v>
+        <v>8.920525672126637</v>
       </c>
       <c r="C118">
-        <v>24.67846187264503</v>
+        <v>7.310857636611896</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>14.36193532528424</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>15.13984071002501</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>40.76776015812969</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>23.4281727965304</v>
+        <v>8.880745003910825</v>
       </c>
       <c r="C119">
-        <v>24.60087726400858</v>
+        <v>7.287151051238119</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>14.32054188130163</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>15.07886798681966</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>40.71359575655692</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>23.34567272650158</v>
+        <v>8.841030213278298</v>
       </c>
       <c r="C120">
-        <v>24.52336304968702</v>
+        <v>7.263466059471892</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>14.27919908846106</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>15.01798405099934</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>40.65947036820025</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>23.2632516914854</v>
+        <v>8.801381698159346</v>
       </c>
       <c r="C121">
-        <v>24.4459195638167</v>
+        <v>7.239802970874695</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>14.23790712343929</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>14.95718911670594</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>40.6053841170857</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>23.18090981569671</v>
+        <v>8.761799839504613</v>
       </c>
       <c r="C122">
-        <v>24.36854711329935</v>
+        <v>7.216162076902871</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>14.19666615025897</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>14.89648339428741</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>40.55133711393817</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>23.09864721219999</v>
+        <v>8.722285007473799</v>
       </c>
       <c r="C123">
-        <v>24.29124599101037</v>
+        <v>7.192543644122936</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>14.15547632088766</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>14.83586709101691</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>40.49732945325526</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>23.01646398553025</v>
+        <v>8.682837559150579</v>
       </c>
       <c r="C124">
-        <v>24.21401645429239</v>
+        <v>7.168947922591878</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>14.11433777857282</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>14.77534041135291</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>40.44336121772505</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>22.93436023225583</v>
+        <v>8.643457842449102</v>
       </c>
       <c r="C125">
-        <v>24.13685875816264</v>
+        <v>7.145375142323998</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>14.07325065661133</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>14.71490355850629</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>40.38943247972045</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>22.85233604174938</v>
+        <v>8.604146196509436</v>
       </c>
       <c r="C126">
-        <v>24.05977312524705</v>
+        <v>7.121825521365364</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>14.03221508150547</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>14.65455673324634</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>40.33554330146957</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>22.77039150032919</v>
+        <v>8.564902953226305</v>
       </c>
       <c r="C127">
-        <v>23.98275977268013</v>
+        <v>7.098299261686426</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>13.99123117216651</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>14.59430013589395</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>40.28169373860249</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>22.6885266851992</v>
+        <v>8.525728437764778</v>
       </c>
       <c r="C128">
-        <v>23.9058188988427</v>
+        <v>7.074796552768235</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>13.95029904165769</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>14.53413396512243</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>40.22788383779285</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>22.6067416744702</v>
+        <v>8.486622969566616</v>
       </c>
       <c r="C129">
-        <v>23.82895069148453</v>
+        <v>7.051317573837078</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>13.90941879768573</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>14.47405841932359</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>40.17411364094334</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>22.52503653747476</v>
+        <v>8.447586862863579</v>
       </c>
       <c r="C130">
-        <v>23.75215532785537</v>
+        <v>7.027862491169388</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>13.8685905429938</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>14.41407369627023</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>40.12038318272003</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>22.44341134435935</v>
+        <v>8.408620426928945</v>
       </c>
       <c r="C131">
-        <v>23.67543297652405</v>
+        <v>7.004431463788882</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>13.82781437643217</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>14.35417999365308</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>40.06669249363725</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>22.36186615989138</v>
+        <v>8.369723967302191</v>
       </c>
       <c r="C132">
-        <v>23.59878379752958</v>
+        <v>6.981024640502623</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>13.78709039286436</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>14.29437750925738</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>40.01304159905143</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>22.28040104803709</v>
+        <v>8.330897785509388</v>
       </c>
       <c r="C133">
-        <v>23.52220794403555</v>
+        <v>6.957642163476775</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>13.74641868410692</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>14.2346664410037</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>39.95943052060714</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>22.19901607030893</v>
+        <v>8.292142180134487</v>
       </c>
       <c r="C134">
-        <v>23.44570556361413</v>
+        <v>6.93428416739879</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>13.70579933887888</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>14.17504698735747</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>39.90585927637824</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>22.11771128702958</v>
+        <v>8.253457446824326</v>
       </c>
       <c r="C135">
-        <v>23.36927679582129</v>
+        <v>6.910950781514755</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>13.66523244333234</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>14.11551934706332</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>39.8523278812194</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>22.03648675722511</v>
+        <v>8.214843878939158</v>
       </c>
       <c r="C136">
-        <v>23.29292177750495</v>
+        <v>6.887642128483168</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>13.62471808133507</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>14.05608371963094</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>39.79883634745105</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>21.9553425390607</v>
+        <v>8.176301767579735</v>
       </c>
       <c r="C137">
-        <v>23.21664063804008</v>
+        <v>6.864358327265124</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>13.58425633456137</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>13.99674030507044</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>39.74538468454281</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>21.87427869016434</v>
+        <v>8.137831402062545</v>
       </c>
       <c r="C138">
-        <v>23.14043350433055</v>
+        <v>6.84109949062977</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>13.54384728297866</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>13.93748930423594</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>39.6919729001037</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>21.79329526710362</v>
+        <v>8.099433069985581</v>
       </c>
       <c r="C139">
-        <v>23.06430049833726</v>
+        <v>6.817865728528777</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>13.50349100479974</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>13.87833091874614</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>39.63860099933974</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>21.71239232667509</v>
+        <v>8.061107057259429</v>
       </c>
       <c r="C140">
-        <v>22.98824173909739</v>
+        <v>6.794657146048454</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>13.46318757687258</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>13.81926535113249</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>39.58526898589221</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>21.63156992465811</v>
+        <v>8.022853648818206</v>
       </c>
       <c r="C141">
-        <v>22.91225734245947</v>
+        <v>6.771473845191367</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>13.42293707470493</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>13.76029280488896</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>39.53197686156717</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>21.55082811722516</v>
+        <v>7.984673128657821</v>
       </c>
       <c r="C142">
-        <v>22.83634742191163</v>
+        <v>6.748315924633066</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>13.38273957266736</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>13.70141348449118</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>39.47872462680985</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>21.47016696009446</v>
+        <v>7.946565778945651</v>
       </c>
       <c r="C143">
-        <v>22.76051208835883</v>
+        <v>6.725183480086726</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>13.34259514413555</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>13.64262759551249</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>39.42551228068023</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>21.38958650925197</v>
+        <v>7.908531882315462</v>
       </c>
       <c r="C144">
-        <v>22.68475145091788</v>
+        <v>6.702076604743275</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>13.30250386151948</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>13.58393534456765</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>39.3723398210797</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>21.30908682072836</v>
+        <v>7.870571720189042</v>
       </c>
       <c r="C145">
-        <v>22.60906561685362</v>
+        <v>6.678995389304911</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>13.26246579647112</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>13.52533693944413</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>39.31920724483361</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>21.22866795087831</v>
+        <v>7.832685572738914</v>
       </c>
       <c r="C146">
-        <v>22.53345469158253</v>
+        <v>6.655939922469039</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>13.22248101982451</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>13.46683258904699</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>39.26611454776716</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>21.14832995632457</v>
+        <v>7.794873720967279</v>
       </c>
       <c r="C147">
-        <v>22.45791877948739</v>
+        <v>6.632910290752847</v>
       </c>
       <c r="D147">
-        <v>0</v>
+        <v>13.18254960196156</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>13.40842250349523</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>39.21306172487073</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>21.06807289413177</v>
+        <v>7.757136444447636</v>
       </c>
       <c r="C148">
-        <v>22.38245798323855</v>
+        <v>6.609906579175879</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>13.1426716125193</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>13.35010689410642</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>39.16004877026128</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>20.98789682182528</v>
+        <v>7.719474022601427</v>
       </c>
       <c r="C149">
-        <v>22.30707240480762</v>
+        <v>6.586928870781601</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>13.10284712073475</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>13.2918859734379</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>39.10707567738589</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>20.90780179737227</v>
+        <v>7.681886735053419</v>
       </c>
       <c r="C150">
-        <v>22.23176214497348</v>
+        <v>6.563977247472764</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>13.06307619566452</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>13.23375995531495</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>39.05414243892042</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>20.82778787940255</v>
+        <v>7.644374860498919</v>
       </c>
       <c r="C151">
-        <v>22.15652730392399</v>
+        <v>6.541051789479515</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>13.02335890542484</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>13.17572905487443</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>39.00124904707727</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>20.74785512702115</v>
+        <v>7.606938678020625</v>
       </c>
       <c r="C152">
-        <v>22.08136798107964</v>
+        <v>6.518152576064751</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>12.98369531839988</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>13.11779348848051</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>38.9483954934628</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>20.66800360008679</v>
+        <v>7.569578466461681</v>
       </c>
       <c r="C153">
-        <v>22.00628427549675</v>
+        <v>6.495279685173185</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>12.94408550247998</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>13.05995347391762</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>38.89558176906764</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>20.58823335906342</v>
+        <v>7.532294504488936</v>
       </c>
       <c r="C154">
-        <v>21.93127628567089</v>
+        <v>6.472433193903421</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>12.90452952508182</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>13.00220923028925</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>38.8428078647504</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>20.50854446519466</v>
+        <v>7.495087070967291</v>
       </c>
       <c r="C155">
-        <v>21.85634410995264</v>
+        <v>6.449613178232405</v>
       </c>
       <c r="D155">
-        <v>0</v>
+        <v>12.86502745376436</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>12.94456097796424</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>38.79007377067133</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>20.42893698045249</v>
+        <v>7.457956444697462</v>
       </c>
       <c r="C156">
-        <v>21.78148784637416</v>
+        <v>6.426819713495016</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>12.82557935567005</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>12.88700893880525</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>38.73737947665425</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>20.34941096763788</v>
+        <v>7.420902904512332</v>
       </c>
       <c r="C157">
-        <v>21.70670759286036</v>
+        <v>6.404052874430782</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>12.78618529786066</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>12.8295533359898</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>38.68472497244385</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>20.26996649035723</v>
+        <v>7.383926729522702</v>
       </c>
       <c r="C158">
-        <v>21.63200344724214</v>
+        <v>6.381312734772873</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>12.74684534732469</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>12.77219439406044</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>38.63211024705637</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>20.19060361309721</v>
+        <v>7.34702819871985</v>
       </c>
       <c r="C159">
-        <v>21.55737550729623</v>
+        <v>6.358599367748814</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>12.70755957087167</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>12.71493233903156</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>38.57953528950129</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.11132240122451</v>
+        <v>7.31020759136865</v>
       </c>
       <c r="C160">
-        <v>21.48282387111979</v>
+        <v>6.33591284657486</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>12.66832803532818</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>12.65776739827608</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>38.52700008850952</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.03212292101269</v>
+        <v>7.273465186954035</v>
       </c>
       <c r="C161">
-        <v>21.40834863685877</v>
+        <v>6.313253243651413</v>
       </c>
       <c r="D161">
-        <v>0</v>
+        <v>12.62915080743773</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>12.60069980061318</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>38.47450463238128</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>19.95300523969075</v>
+        <v>7.236801264881424</v>
       </c>
       <c r="C162">
-        <v>21.33394990247725</v>
+        <v>6.290620630437042</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>12.59002795389681</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>12.54372977630561</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>38.42204890937134</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>19.87396942542677</v>
+        <v>7.200216104963923</v>
       </c>
       <c r="C163">
-        <v>21.25962776689406</v>
+        <v>6.268015079050453</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>12.55095954146628</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>12.48685755704254</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>38.36963290747584</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>19.79501554739678</v>
+        <v>7.163709987126516</v>
       </c>
       <c r="C164">
-        <v>21.18538232926608</v>
+        <v>6.245436661004135</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>12.51194563681007</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>12.43008337598705</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>38.31725661447</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>19.71614367576712</v>
+        <v>7.127283191415987</v>
       </c>
       <c r="C165">
-        <v>21.1112136881927</v>
+        <v>6.222885446743534</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>12.47298630668227</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>12.3734074677614</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>38.26492001802627</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>19.63735388174895</v>
+        <v>7.090935998185016</v>
       </c>
       <c r="C166">
-        <v>21.03712194376531</v>
+        <v>6.200361507456538</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>12.43408161786842</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>12.31683006845188</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>38.21262310562744</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>19.55864623759549</v>
+        <v>7.054668687939813</v>
       </c>
       <c r="C167">
-        <v>20.96310719630463</v>
+        <v>6.177864913902928</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>12.39523163711889</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>12.26035141564433</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>38.1603658646147</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>19.48002081664325</v>
+        <v>7.018481541399532</v>
       </c>
       <c r="C168">
-        <v>20.88916954610822</v>
+        <v>6.155395736275047</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>12.35643643131487</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>12.20397174839949</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>38.10814828225634</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.40147769331424</v>
+        <v>6.982374839542841</v>
       </c>
       <c r="C169">
-        <v>20.81530909430074</v>
+        <v>6.132954045037945</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>12.31769606735775</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>12.1476913072734</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>38.05597034562986</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.32301694315215</v>
+        <v>6.946348863495364</v>
       </c>
       <c r="C170">
-        <v>20.74152594272424</v>
+        <v>6.11053991051589</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>12.27901061220947</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>12.09151033434067</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>38.00383204175373</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.24463864282982</v>
+        <v>6.91040389465768</v>
       </c>
       <c r="C171">
-        <v>20.66782019360286</v>
+        <v>6.088153402866634</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>12.2403801329359</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>12.035429073164</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>37.95173335757088</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.1663428701737</v>
+        <v>6.874540214644429</v>
       </c>
       <c r="C172">
-        <v>20.5941919496855</v>
+        <v>6.065794592258513</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>12.20180469665605</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>11.97944776883748</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>37.89967427985526</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.08812970418399</v>
+        <v>6.838758105210095</v>
       </c>
       <c r="C173">
-        <v>20.52064131459398</v>
+        <v>6.043463548941626</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>12.16328437060433</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>11.92356666797778</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>37.84765479537522</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.00999922504785</v>
+        <v>6.803057848397263</v>
       </c>
       <c r="C174">
-        <v>20.44716839254612</v>
+        <v>6.021160343120651</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>12.12481922210672</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>11.86778601871993</v>
       </c>
       <c r="F174">
-        <v>0</v>
+        <v>37.79567489080329</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>18.93195151416571</v>
+        <v>6.767439726412951</v>
       </c>
       <c r="C175">
-        <v>20.37377328838398</v>
+        <v>5.998885044990048</v>
       </c>
       <c r="D175">
-        <v>0</v>
+        <v>12.08640931857675</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>11.81210607074576</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>37.74373455271671</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>18.85398665416279</v>
+        <v>6.731904021626595</v>
       </c>
       <c r="C176">
-        <v>20.30045610780885</v>
+        <v>5.976637724967466</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>12.0480547275608</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>11.75652707527443</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>37.69183376766721</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>18.77610472891325</v>
+        <v>6.69645101664721</v>
       </c>
       <c r="C177">
-        <v>20.22721695726883</v>
+        <v>5.954418453508298</v>
       </c>
       <c r="D177">
-        <v>0</v>
+        <v>12.00975551669851</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>11.70104928506946</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>37.63997252213689</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>18.69830582355393</v>
+        <v>6.661080994219196</v>
       </c>
       <c r="C178">
-        <v>20.15405594387829</v>
+        <v>5.932227300996057</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>11.97151175374837</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>11.64567295445358</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>37.58815080255337</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.62059002450822</v>
+        <v>6.625794237263925</v>
       </c>
       <c r="C179">
-        <v>20.08097317570393</v>
+        <v>5.910064338176185</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>11.93332350660287</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>11.59039833930251</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>37.53636859531619</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.54295741950244</v>
+        <v>6.590591028880978</v>
       </c>
       <c r="C180">
-        <v>20.00796876163359</v>
+        <v>5.887929635886293</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>11.89519084325178</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>11.53522569705714</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>37.48462588677069</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.4654080975782</v>
+        <v>6.555471652276931</v>
       </c>
       <c r="C181">
-        <v>19.93504281131275</v>
+        <v>5.865823264919756</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>11.85711383183376</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>11.48015528673154</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>37.43292266323373</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.38794214912237</v>
+        <v>6.520436390832484</v>
       </c>
       <c r="C182">
-        <v>19.86219543529529</v>
+        <v>5.843745296445428</v>
       </c>
       <c r="D182">
-        <v>0</v>
+        <v>11.81909254060848</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>11.42518736890317</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>37.38125891100131</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.31055966587998</v>
+        <v>6.485485528043132</v>
       </c>
       <c r="C183">
-        <v>19.78942674509961</v>
+        <v>5.821695801763945</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>11.78112703795955</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>11.37032220573745</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>37.32963461631739</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.2332607409694</v>
+        <v>6.450619347492013</v>
       </c>
       <c r="C184">
-        <v>19.71673685309595</v>
+        <v>5.799674852302462</v>
       </c>
       <c r="D184">
-        <v>0</v>
+        <v>11.74321739241611</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>11.31556006098035</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>37.27804976542571</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.15604546890433</v>
+        <v>6.41583813289498</v>
       </c>
       <c r="C185">
-        <v>19.64412587252496</v>
+        <v>5.777682519725438</v>
       </c>
       <c r="D185">
-        <v>0</v>
+        <v>11.70536367263408</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>11.26090119995835</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>37.22650434454437</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.07891394561531</v>
+        <v>6.3811421680328</v>
       </c>
       <c r="C186">
-        <v>19.57159391768114</v>
+        <v>5.755718875943778</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>11.6675659474103</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>11.20634588959786</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>37.1749983398581</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.00186626846515</v>
+        <v>6.34653173674758</v>
       </c>
       <c r="C187">
-        <v>19.49914110378992</v>
+        <v>5.733783993065392</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>11.62982428568393</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>11.15189439841653</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>37.12353173755468</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>17.92490253627003</v>
+        <v>6.312007122961243</v>
       </c>
       <c r="C188">
-        <v>19.42676754700341</v>
+        <v>5.711877943424808</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>11.59213875652608</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>11.09754699652905</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>37.0721045238021</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>17.8480228493144</v>
+        <v>6.27756861060451</v>
       </c>
       <c r="C189">
-        <v>19.35447336454132</v>
+        <v>5.690000799646404</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>11.55450942915916</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>11.04330395565901</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>37.02071668475268</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>17.7712273093734</v>
+        <v>6.243216483645226</v>
       </c>
       <c r="C190">
-        <v>19.2822586746243</v>
+        <v>5.668152634597233</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>11.51693637294425</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>10.98916554913071</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>36.96936820656007</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>17.69451601974607</v>
+        <v>6.208951026062747</v>
       </c>
       <c r="C191">
-        <v>19.21012359648345</v>
+        <v>5.646333521374263</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>11.47941965738317</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>10.93513205188133</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>36.91805907536607</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>17.61788908524613</v>
+        <v>6.174772521795991</v>
       </c>
       <c r="C192">
-        <v>19.13806825042407</v>
+        <v>5.62454353340968</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>11.44195935212923</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>10.8812037404639</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>36.86678927730912</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17.54134661224036</v>
+        <v>6.140681254781061</v>
       </c>
       <c r="C193">
-        <v>19.06609275782116</v>
+        <v>5.602782744410824</v>
       </c>
       <c r="D193">
-        <v>0</v>
+        <v>11.40455552697342</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>10.82738089304013</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>36.81555879853011</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>17.46488870868112</v>
+        <v>6.106677508894876</v>
       </c>
       <c r="C194">
-        <v>18.99419724111796</v>
+        <v>5.581051228315427</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>11.36720825185668</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>10.77366378939914</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>36.76436762516283</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>17.38851548410275</v>
+        <v>6.072761567932019</v>
       </c>
       <c r="C195">
-        <v>18.92238182385738</v>
+        <v>5.559349059433084</v>
       </c>
       <c r="D195">
-        <v>0</v>
+        <v>11.32991759686633</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>10.72005271094965</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>36.71321574334787</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>17.31222704964689</v>
+        <v>6.038933715621247</v>
       </c>
       <c r="C196">
-        <v>18.85064663071556</v>
+        <v>5.537676312366255</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>11.29268363223124</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>10.66654794071985</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>36.66210313922917</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>17.23602351809907</v>
+        <v>6.005194235567221</v>
       </c>
       <c r="C197">
-        <v>18.77899178748727</v>
+        <v>5.516033061994562</v>
       </c>
       <c r="D197">
-        <v>0</v>
+        <v>11.25550642833194</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>10.61314976337262</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>36.61102979894859</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>17.15990500390577</v>
+        <v>5.971543411245613</v>
       </c>
       <c r="C198">
-        <v>18.70741742109149</v>
+        <v>5.494419383543145</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>11.21838605569266</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>10.55985846519494</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>36.55999570866079</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>17.08387162317298</v>
+        <v>5.937981525996918</v>
       </c>
       <c r="C199">
-        <v>18.63592365963916</v>
+        <v>5.472835352573629</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>11.18132258498347</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>10.50667433410374</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>36.50900085452493</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>17.00792349371206</v>
+        <v>5.904508862966</v>
       </c>
       <c r="C200">
-        <v>18.56451063240747</v>
+        <v>5.451281044961878</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>11.14431608702378</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>10.45359765965461</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>36.45804522270487</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>16.93206073507454</v>
+        <v>5.871125705123275</v>
       </c>
       <c r="C201">
-        <v>18.49317846983722</v>
+        <v>5.429756536917962</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>11.10736663277486</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>10.40062873302932</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>36.4071287993786</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.85628346852839</v>
+        <v>5.837832335222158</v>
       </c>
       <c r="C202">
-        <v>18.42192730360134</v>
+        <v>5.40826190501637</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>11.07047429334745</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>10.34776784705087</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>36.35625157073153</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.78059181711169</v>
+        <v>5.804629035757981</v>
       </c>
       <c r="C203">
-        <v>18.35075726658377</v>
+        <v>5.386797226171478</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>11.03363913999615</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>10.29501529618029</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>36.3054135229596</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16.70498590567977</v>
+        <v>5.771516088986521</v>
       </c>
       <c r="C204">
-        <v>18.27966849289294</v>
+        <v>5.365362577639404</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>10.99686124411633</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>10.24237137650786</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>36.25461464227346</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.62946586087057</v>
+        <v>5.738493776867275</v>
       </c>
       <c r="C205">
-        <v>18.20866111789005</v>
+        <v>5.343958037057638</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>10.96014067725512</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>10.18983638577199</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>36.20385491489396</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>16.55403181116089</v>
+        <v>5.70556238104072</v>
       </c>
       <c r="C206">
-        <v>18.13773527820022</v>
+        <v>5.322583682423891</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>10.92347751110372</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>10.1374106233464</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>36.1531343270572</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>16.47868388690609</v>
+        <v>5.672722182829859</v>
       </c>
       <c r="C207">
-        <v>18.06689111172273</v>
+        <v>5.30123959208599</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>10.8868718174938</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>10.08509439023914</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>36.10245286501468</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>16.40342222034168</v>
+        <v>5.63997346318118</v>
       </c>
       <c r="C208">
-        <v>17.99612875764737</v>
+        <v>5.279925844789989</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>10.85032366838786</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>10.03288798910633</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>36.05181051503044</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>16.32824694559599</v>
+        <v>5.607316502660185</v>
       </c>
       <c r="C209">
-        <v>17.925448356472</v>
+        <v>5.258642519656509</v>
       </c>
       <c r="D209">
-        <v>0</v>
+        <v>10.81383313591218</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>9.980791724229501</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>36.0012072633874</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>16.25315819874498</v>
+        <v>5.574751581429749</v>
       </c>
       <c r="C210">
-        <v>17.85485005001397</v>
+        <v>5.237389696172385</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>10.77740029232978</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>9.928805901532535</v>
       </c>
       <c r="F210">
-        <v>0</v>
+        <v>35.9506430963844</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>16.17815611784289</v>
+        <v>5.542278979191945</v>
       </c>
       <c r="C211">
-        <v>17.78433398142419</v>
+        <v>5.216167454225647</v>
       </c>
       <c r="D211">
-        <v>0</v>
+        <v>10.74102521003948</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>9.876930828589291</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>35.90011800033587</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>16.10324084289734</v>
+        <v>5.509898975205072</v>
       </c>
       <c r="C212">
-        <v>17.71390029520504</v>
+        <v>5.194975874097287</v>
       </c>
       <c r="D212">
-        <v>0</v>
+        <v>10.70470796156059</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>9.825166814613402</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>35.84963196157648</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>16.02841251593622</v>
+        <v>5.477611848224567</v>
       </c>
       <c r="C213">
-        <v>17.6435491372225</v>
+        <v>5.173815036453364</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>10.66844861958259</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>9.773514170426784</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>35.79918496645819</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>15.95367128106259</v>
+        <v>5.445417876460498</v>
       </c>
       <c r="C214">
-        <v>17.57328065472</v>
+        <v>5.152685022358376</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>10.63224725692344</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>9.721973208480735</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>35.74877700135127</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>15.87901728440143</v>
+        <v>5.413317337614707</v>
       </c>
       <c r="C215">
-        <v>17.50309499633547</v>
+        <v>5.131585913288268</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>10.5961039465337</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>9.670544242908989</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>35.69840805264698</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>15.80445067417903</v>
+        <v>5.381310508811198</v>
       </c>
       <c r="C216">
-        <v>17.43299231211425</v>
+        <v>5.110517791118775</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>10.56001876148216</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>9.619227589466583</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>35.64807810675415</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>15.72997160077494</v>
+        <v>5.34939766656249</v>
       </c>
       <c r="C217">
-        <v>17.36297275352557</v>
+        <v>5.089480738128116</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>10.5239917749983</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>9.568023565507746</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>35.5977871501031</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>15.65558021669353</v>
+        <v>5.317579086654267</v>
       </c>
       <c r="C218">
-        <v>17.29303647347556</v>
+        <v>5.068474837018091</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>10.48802306043618</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>9.516932489963741</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>35.54753516914631</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>15.58127667660977</v>
+        <v>5.285855044347493</v>
       </c>
       <c r="C219">
-        <v>17.22318362632174</v>
+        <v>5.047500170902869</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>10.45211269127951</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>9.465954683494761</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>35.49732215035785</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>15.50706113742744</v>
+        <v>5.254225814177317</v>
       </c>
       <c r="C220">
-        <v>17.15341436789092</v>
+        <v>5.026556823306383</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>10.41626074113203</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>9.415090468350158</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>35.44714808023001</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>15.43293375829552</v>
+        <v>5.222691669957436</v>
       </c>
       <c r="C221">
-        <v>17.08372885549465</v>
+        <v>5.005644878185681</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>10.38046728374224</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>9.364340168381226</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>35.39701294527634</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>15.35889470059939</v>
+        <v>5.191252884566677</v>
       </c>
       <c r="C222">
-        <v>17.01412724793737</v>
+        <v>4.98476441992062</v>
       </c>
       <c r="D222">
-        <v>0</v>
+        <v>10.34473239298152</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>9.313704108963625</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>35.34691673203909</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>15.28494412803676</v>
+        <v>5.159909730332281</v>
       </c>
       <c r="C223">
-        <v>16.94460970553809</v>
+        <v>4.963915533310177</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>10.3090561428466</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>9.263182617214342</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>35.29685942708179</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>15.21108220666901</v>
+        <v>5.128662478695746</v>
       </c>
       <c r="C224">
-        <v>16.87517639015111</v>
+        <v>4.943098303592294</v>
       </c>
       <c r="D224">
-        <v>0</v>
+        <v>10.27343860745264</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>9.212776021813362</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>35.2468410169887</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>15.13730910486962</v>
+        <v>5.097511400262033</v>
       </c>
       <c r="C225">
-        <v>16.80582746516569</v>
+        <v>4.922312816438049</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>10.2378798610484</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>9.162484653039902</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>35.19686148836003</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>15.06362499341326</v>
+        <v>5.066456764556858</v>
       </c>
       <c r="C226">
-        <v>16.73656309553198</v>
+        <v>4.901559157949171</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>10.20237997800195</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>9.11230884266414</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>35.14692082783267</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>14.99003004555354</v>
+        <v>5.03549884042287</v>
       </c>
       <c r="C227">
-        <v>16.66738344778362</v>
+        <v>4.880837414667268</v>
       </c>
       <c r="D227">
-        <v>0</v>
+        <v>10.16693903280084</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>9.062248924176325</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>35.09701902206337</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>14.91652443694415</v>
+        <v>5.004637895682902</v>
       </c>
       <c r="C228">
-        <v>16.59828869003698</v>
+        <v>4.860147673579232</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>10.13155710004382</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>9.012305232609556</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>35.04715605773309</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>14.84310834574131</v>
+        <v>4.973874197184974</v>
       </c>
       <c r="C229">
-        <v>16.52927899201503</v>
+        <v>4.839490022111953</v>
       </c>
       <c r="D229">
-        <v>0</v>
+        <v>10.09623425445855</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>8.962478104580173</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>34.99733192153708</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>14.76978195266026</v>
+        <v>4.943208010638699</v>
       </c>
       <c r="C230">
-        <v>16.46035452506907</v>
+        <v>4.818864548135045</v>
       </c>
       <c r="D230">
-        <v>0</v>
+        <v>10.06097057088519</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>8.912767878173343</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>34.94754660020821</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>14.69654544096555</v>
+        <v>4.912639600823339</v>
       </c>
       <c r="C231">
-        <v>16.39151546218865</v>
+        <v>4.798271339972874</v>
       </c>
       <c r="D231">
-        <v>0</v>
+        <v>10.02576612427673</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>8.8631748931495</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>34.89780008050007</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>14.623398996495</v>
+        <v>4.882169231415554</v>
       </c>
       <c r="C232">
-        <v>16.32276197801252</v>
+        <v>4.777710486398151</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>9.990620989688942</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>8.813699490801017</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>34.84809234919165</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>14.55034280774222</v>
+        <v>4.851797164967405</v>
       </c>
       <c r="C233">
-        <v>16.25409424885485</v>
+        <v>4.757182076630804</v>
       </c>
       <c r="D233">
-        <v>0</v>
+        <v>9.955535242301565</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>8.764342013971319</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>34.79842339308247</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>14.47737706589593</v>
+        <v>4.821523662793249</v>
       </c>
       <c r="C234">
-        <v>16.18551245272404</v>
+        <v>4.736686200352922</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>9.920508957398983</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>8.715102806951661</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>34.74879319900217</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>14.4045019648017</v>
+        <v>4.791348985077989</v>
       </c>
       <c r="C235">
-        <v>16.11701676932205</v>
+        <v>4.716222947702306</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>9.885542210371389</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>8.665982215637301</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>34.69920175380559</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>14.33171770106378</v>
+        <v>4.761273390790759</v>
       </c>
       <c r="C236">
-        <v>16.04860738007455</v>
+        <v>4.695792409269504</v>
       </c>
       <c r="D236">
-        <v>0</v>
+        <v>9.850635076704561</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>8.616980587460461</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>34.64964904437312</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>14.2590244741246</v>
+        <v>4.731297137627598</v>
       </c>
       <c r="C237">
-        <v>15.98028446815778</v>
+        <v>4.675394676112899</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>9.815787632000104</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>8.568098271357091</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>34.60013505760988</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>14.18642248617973</v>
+        <v>4.701420481914434</v>
       </c>
       <c r="C238">
-        <v>15.91204821848808</v>
+        <v>4.655029839752867</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>9.780999951956741</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>8.519335617686503</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>34.55065978044779</v>
       </c>
     </row>
   </sheetData>
